--- a/multiple files/2311-EE-492-T1.xlsx
+++ b/multiple files/2311-EE-492-T1.xlsx
@@ -4694,7 +4694,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="9" customWidth="1" min="1" max="1"/>
+    <col width="20" customWidth="1" min="1" max="1"/>
     <col width="7" customWidth="1" min="2" max="2"/>
     <col width="7" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
@@ -4821,7 +4821,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>sa06081</t>
+          <t>sa06081@st.habib.edu.pk</t>
         </is>
       </c>
       <c r="B2" s="3" t="n">
@@ -4887,7 +4887,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ma05283</t>
+          <t>ma05283@st.habib.edu.pk</t>
         </is>
       </c>
       <c r="B3" s="3" t="n">
@@ -4953,7 +4953,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ba05445</t>
+          <t>ba05445@st.habib.edu.pk</t>
         </is>
       </c>
       <c r="B4" s="3" t="n">
@@ -5019,7 +5019,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>mb05962</t>
+          <t>mb05962@st.habib.edu.pk</t>
         </is>
       </c>
       <c r="B5" s="3" t="n">
@@ -5085,7 +5085,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>yb06182</t>
+          <t>yb06182@st.habib.edu.pk</t>
         </is>
       </c>
       <c r="B6" s="3" t="n">
@@ -5151,7 +5151,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ab06165</t>
+          <t>ab06165@st.habib.edu.pk</t>
         </is>
       </c>
       <c r="B7" s="3" t="n">
@@ -5217,7 +5217,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ah04335</t>
+          <t>ah04335@st.habib.edu.pk</t>
         </is>
       </c>
       <c r="B8" s="3" t="n">
@@ -5283,7 +5283,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>hi05466</t>
+          <t>hi05466@st.habib.edu.pk</t>
         </is>
       </c>
       <c r="B9" s="3" t="n">
@@ -5349,7 +5349,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>sk05573</t>
+          <t>sk05573@st.habib.edu.pk</t>
         </is>
       </c>
       <c r="B10" s="3" t="n">
@@ -5415,7 +5415,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>mk06174</t>
+          <t>mk06174@st.habib.edu.pk</t>
         </is>
       </c>
       <c r="B11" s="3" t="n">
@@ -5481,7 +5481,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>mk06181</t>
+          <t>mk06181@st.habib.edu.pk</t>
         </is>
       </c>
       <c r="B12" s="3" t="n">
@@ -5547,7 +5547,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>ak05437</t>
+          <t>ak05437@st.habib.edu.pk</t>
         </is>
       </c>
       <c r="B13" s="3" t="n">
@@ -5613,7 +5613,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>zm05923</t>
+          <t>zm05923@st.habib.edu.pk</t>
         </is>
       </c>
       <c r="B14" s="3" t="n">
@@ -5679,7 +5679,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>mq05497</t>
+          <t>mq05497@st.habib.edu.pk</t>
         </is>
       </c>
       <c r="B15" s="3" t="n">
@@ -5745,7 +5745,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>tq05773</t>
+          <t>tq05773@st.habib.edu.pk</t>
         </is>
       </c>
       <c r="B16" s="3" t="n">
@@ -5811,7 +5811,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>or05554</t>
+          <t>or05554@st.habib.edu.pk</t>
         </is>
       </c>
       <c r="B17" s="3" t="n">
@@ -5877,7 +5877,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>mr05523</t>
+          <t>mr05523@st.habib.edu.pk</t>
         </is>
       </c>
       <c r="B18" s="3" t="n">
@@ -5943,7 +5943,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>mr05498</t>
+          <t>mr05498@st.habib.edu.pk</t>
         </is>
       </c>
       <c r="B19" s="3" t="n">
@@ -6009,7 +6009,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>ms05767</t>
+          <t>ms05767@st.habib.edu.pk</t>
         </is>
       </c>
       <c r="B20" s="3" t="n">
@@ -6075,7 +6075,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>ss06054</t>
+          <t>ss06054@st.habib.edu.pk</t>
         </is>
       </c>
       <c r="B21" s="3" t="n">
@@ -6141,7 +6141,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>ms04301</t>
+          <t>ms04301@st.habib.edu.pk</t>
         </is>
       </c>
       <c r="B22" s="3" t="n">
@@ -6207,7 +6207,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>ms05996</t>
+          <t>ms05996@st.habib.edu.pk</t>
         </is>
       </c>
       <c r="B23" s="3" t="n">
@@ -6273,7 +6273,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>mt05482</t>
+          <t>mt05482@st.habib.edu.pk</t>
         </is>
       </c>
       <c r="B24" s="3" t="n">
@@ -6339,7 +6339,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>az06113</t>
+          <t>az06113@st.habib.edu.pk</t>
         </is>
       </c>
       <c r="B25" s="3" t="n">
